--- a/Estructura_IPC.xlsx
+++ b/Estructura_IPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Serprivado\Proyectos\DataScience_CoderHouse_datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectoLocal\DataScience_CoderHouse_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99596EF2-5065-4629-B815-EC01588F3B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FB392-245F-4863-A818-03DE86D83B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4FA920BD-0404-49AF-8F28-8B2F60492B3C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4FA920BD-0404-49AF-8F28-8B2F60492B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Divisiones" sheetId="3" r:id="rId1"/>
@@ -6313,7 +6313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="000"/>
@@ -6321,6 +6321,7 @@
     <numFmt numFmtId="168" formatCode="00000"/>
     <numFmt numFmtId="169" formatCode="00000000"/>
     <numFmt numFmtId="170" formatCode="000000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -6467,7 +6468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6743,6 +6744,9 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7314,7 +7318,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7530,8 +7534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09317029-ED29-4584-B5A4-F17586F5BE5B}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7594,7 +7598,9 @@
       <c r="C4" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>1.9292</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -7676,7 +7682,9 @@
       <c r="C10" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>0.75739999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -8010,7 +8018,9 @@
       <c r="C34" s="60" t="s">
         <v>691</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="8">
+        <v>0.74019999999999997</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
@@ -8022,7 +8032,9 @@
       <c r="C35" s="60" t="s">
         <v>693</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="8">
+        <v>0.68689999999999996</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -8104,7 +8116,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8139,7 +8151,7 @@
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="93">
         <v>4.9448999999999996</v>
       </c>
     </row>
@@ -8153,7 +8165,7 @@
       <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="93">
         <v>8.0159000000000002</v>
       </c>
     </row>
@@ -8167,7 +8179,7 @@
       <c r="C4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="93">
         <v>0.42709999999999998</v>
       </c>
     </row>
@@ -8181,7 +8193,7 @@
       <c r="C5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="93">
         <v>3.2576999999999998</v>
       </c>
     </row>
@@ -8195,7 +8207,7 @@
       <c r="C6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="93">
         <v>0.59760000000000002</v>
       </c>
     </row>
@@ -8209,7 +8221,7 @@
       <c r="C7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="93">
         <v>1.2415</v>
       </c>
     </row>
@@ -8223,7 +8235,7 @@
       <c r="C8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="93">
         <v>2.3479999999999999</v>
       </c>
     </row>
@@ -8237,7 +8249,7 @@
       <c r="C9" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="93">
         <v>1.0711999999999999</v>
       </c>
     </row>
@@ -8251,7 +8263,7 @@
       <c r="C10" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="93">
         <v>0.79710000000000003</v>
       </c>
     </row>
@@ -8265,7 +8277,7 @@
       <c r="C11" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="93">
         <v>0.22620000000000001</v>
       </c>
     </row>
@@ -8279,7 +8291,7 @@
       <c r="C12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="93">
         <v>0.17699999999999999</v>
       </c>
     </row>
@@ -8293,7 +8305,7 @@
       <c r="C13" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="93">
         <v>0.63859999999999995</v>
       </c>
     </row>
@@ -8307,7 +8319,7 @@
       <c r="C14" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="93">
         <v>0.77139999999999997</v>
       </c>
     </row>
@@ -8321,7 +8333,7 @@
       <c r="C15" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="93">
         <v>1.2504999999999999</v>
       </c>
     </row>
@@ -8335,7 +8347,7 @@
       <c r="C16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="93">
         <v>8.48E-2</v>
       </c>
     </row>
@@ -8349,7 +8361,9 @@
       <c r="C17" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="93">
+        <v>0.318</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -8361,7 +8375,7 @@
       <c r="C18" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="93">
         <v>0.77010000000000001</v>
       </c>
     </row>
@@ -8375,7 +8389,7 @@
       <c r="C19" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="93">
         <v>0.84109999999999996</v>
       </c>
     </row>
@@ -8389,7 +8403,7 @@
       <c r="C20" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="93">
         <v>1.7141</v>
       </c>
     </row>
@@ -8403,7 +8417,7 @@
       <c r="C21" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="93">
         <v>1.6564000000000001</v>
       </c>
     </row>
@@ -8417,7 +8431,7 @@
       <c r="C22" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="93">
         <v>1.1119000000000001</v>
       </c>
     </row>
@@ -8431,7 +8445,7 @@
       <c r="C23" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="93">
         <v>3.5920999999999998</v>
       </c>
     </row>
@@ -8445,7 +8459,7 @@
       <c r="C24" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="93">
         <v>0.45150000000000001</v>
       </c>
     </row>
@@ -8459,7 +8473,7 @@
       <c r="C25" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="93">
         <v>0.51419999999999999</v>
       </c>
     </row>
@@ -8473,7 +8487,7 @@
       <c r="C26" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="93">
         <v>1.1347</v>
       </c>
     </row>
@@ -8487,7 +8501,7 @@
       <c r="C27" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="93">
         <v>0.26690000000000003</v>
       </c>
     </row>
@@ -8501,7 +8515,7 @@
       <c r="C28" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="93">
         <v>0.1696</v>
       </c>
     </row>
@@ -8515,7 +8529,7 @@
       <c r="C29" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="93">
         <v>1.3227</v>
       </c>
     </row>
@@ -8529,7 +8543,7 @@
       <c r="C30" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="93">
         <v>4.2389999999999999</v>
       </c>
     </row>
@@ -8543,7 +8557,7 @@
       <c r="C31" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="93">
         <v>0.9133</v>
       </c>
     </row>
@@ -8557,7 +8571,7 @@
       <c r="C32" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="93">
         <v>0.39589999999999997</v>
       </c>
     </row>
@@ -8571,7 +8585,9 @@
       <c r="C33" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="93">
+        <v>0.75470000000000004</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -8583,7 +8599,7 @@
       <c r="C34" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="93">
         <v>0.2336</v>
       </c>
     </row>
@@ -8597,7 +8613,7 @@
       <c r="C35" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="93">
         <v>0.67510000000000003</v>
       </c>
     </row>
@@ -8611,7 +8627,7 @@
       <c r="C36" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="93">
         <v>1.7539</v>
       </c>
     </row>
@@ -8625,7 +8641,7 @@
       <c r="C37" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="93">
         <v>0.3589</v>
       </c>
     </row>
@@ -8639,7 +8655,7 @@
       <c r="C38" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="93">
         <v>0.67649999999999999</v>
       </c>
     </row>
@@ -8653,7 +8669,7 @@
       <c r="C39" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="93">
         <v>0.79700000000000004</v>
       </c>
     </row>
@@ -8667,7 +8683,7 @@
       <c r="C40" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="93">
         <v>0.24</v>
       </c>
     </row>
@@ -8681,7 +8697,7 @@
       <c r="C41" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="93">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
@@ -8695,7 +8711,7 @@
       <c r="C42" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="93">
         <v>2.5375999999999999</v>
       </c>
     </row>
@@ -8709,7 +8725,7 @@
       <c r="C43" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="93">
         <v>0.2177</v>
       </c>
     </row>
@@ -8723,7 +8739,7 @@
       <c r="C44" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="93">
         <v>9.8699999999999996E-2</v>
       </c>
     </row>
@@ -8737,7 +8753,7 @@
       <c r="C45" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="93">
         <v>0.23499999999999999</v>
       </c>
     </row>
@@ -8751,7 +8767,7 @@
       <c r="C46" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="93">
         <v>4.3376000000000001</v>
       </c>
     </row>
@@ -8765,7 +8781,7 @@
       <c r="C47" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="93">
         <v>0.73260000000000003</v>
       </c>
     </row>
@@ -8779,7 +8795,7 @@
       <c r="C48" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="93">
         <v>0.96260000000000001</v>
       </c>
     </row>
@@ -8793,7 +8809,7 @@
       <c r="C49" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="93">
         <v>1.8643000000000001</v>
       </c>
     </row>
@@ -8807,7 +8823,7 @@
       <c r="C50" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="93">
         <v>0.68320000000000003</v>
       </c>
     </row>
@@ -8821,7 +8837,7 @@
       <c r="C51" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="D51" s="56"/>
+      <c r="D51" s="93"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -8833,7 +8849,7 @@
       <c r="C52" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="93">
         <v>0.20280000000000001</v>
       </c>
     </row>
@@ -8847,7 +8863,7 @@
       <c r="C53" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="93">
         <v>0.252</v>
       </c>
     </row>
@@ -8861,7 +8877,7 @@
       <c r="C54" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="93">
         <v>0.86819999999999997</v>
       </c>
     </row>
@@ -8875,7 +8891,7 @@
       <c r="C55" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="93">
         <v>1.8309</v>
       </c>
     </row>
@@ -8889,7 +8905,7 @@
       <c r="C56" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="93">
         <v>0.75549999999999995</v>
       </c>
     </row>
@@ -8903,7 +8919,7 @@
       <c r="C57" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="93">
         <v>1.9883999999999999</v>
       </c>
     </row>
@@ -8917,7 +8933,7 @@
       <c r="C58" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="93">
         <v>0.54679999999999995</v>
       </c>
     </row>
@@ -8931,7 +8947,7 @@
       <c r="C59" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="93">
         <v>0.1401</v>
       </c>
     </row>
@@ -8945,7 +8961,7 @@
       <c r="C60" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="93">
         <v>0.11550000000000001</v>
       </c>
     </row>
@@ -8959,7 +8975,7 @@
       <c r="C61" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="93">
         <v>0.96399999999999997</v>
       </c>
     </row>
@@ -8973,7 +8989,7 @@
       <c r="C62" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="93">
         <v>0.17369999999999999</v>
       </c>
     </row>
@@ -8987,7 +9003,7 @@
       <c r="C63" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="93">
         <v>0.72240000000000004</v>
       </c>
     </row>
@@ -9001,7 +9017,7 @@
       <c r="C64" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="93">
         <v>1.1012999999999999</v>
       </c>
     </row>
@@ -9015,7 +9031,7 @@
       <c r="C65" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="93">
         <v>8.8400000000000006E-2</v>
       </c>
     </row>
@@ -9029,7 +9045,7 @@
       <c r="C66" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="93">
         <v>0.25440000000000002</v>
       </c>
     </row>
@@ -9043,7 +9059,7 @@
       <c r="C67" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="93">
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
@@ -9057,7 +9073,7 @@
       <c r="C68" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="93">
         <v>0.2432</v>
       </c>
     </row>
@@ -9071,7 +9087,7 @@
       <c r="C69" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="93">
         <v>1.2155</v>
       </c>
     </row>
@@ -9085,7 +9101,7 @@
       <c r="C70" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="93">
         <v>1.5087999999999999</v>
       </c>
     </row>
@@ -9099,7 +9115,7 @@
       <c r="C71" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="93">
         <v>0.89729999999999999</v>
       </c>
     </row>
@@ -9113,7 +9129,7 @@
       <c r="C72" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="93">
         <v>0.35909999999999997</v>
       </c>
     </row>
@@ -9127,7 +9143,7 @@
       <c r="C73" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="93">
         <v>0.6986</v>
       </c>
     </row>
@@ -9141,7 +9157,7 @@
       <c r="C74" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="93">
         <v>8.0028000000000006</v>
       </c>
     </row>
@@ -9155,7 +9171,7 @@
       <c r="C75" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="93">
         <v>0.30559999999999998</v>
       </c>
     </row>
@@ -9169,7 +9185,7 @@
       <c r="C76" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="93">
         <v>0.26879999999999998</v>
       </c>
     </row>
@@ -9183,7 +9199,7 @@
       <c r="C77" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="93">
         <v>2.3380000000000001</v>
       </c>
     </row>
@@ -9197,7 +9213,7 @@
       <c r="C78" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="93">
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
@@ -9211,7 +9227,7 @@
       <c r="C79" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="93">
         <v>0.92600000000000005</v>
       </c>
     </row>
@@ -9225,7 +9241,7 @@
       <c r="C80" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="93">
         <v>1.8787</v>
       </c>
     </row>
@@ -9239,7 +9255,7 @@
       <c r="C81" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="93">
         <v>0.21840000000000001</v>
       </c>
     </row>
@@ -9253,7 +9269,7 @@
       <c r="C82" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="93">
         <v>2.6871</v>
       </c>
     </row>
@@ -9267,7 +9283,7 @@
       <c r="C83" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="93">
         <v>0.9385</v>
       </c>
     </row>
@@ -9281,7 +9297,7 @@
       <c r="C84" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="93">
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
@@ -9295,7 +9311,7 @@
       <c r="C85" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="93">
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
@@ -9309,7 +9325,7 @@
       <c r="C86" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="93">
         <v>8.9700000000000002E-2</v>
       </c>
     </row>
@@ -9323,7 +9339,7 @@
       <c r="C87" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="D87" s="66">
+      <c r="D87" s="93">
         <v>0.505</v>
       </c>
     </row>
